--- a/Run-Env/iManager/src/main/webapp/template/LogsStatsInterface.xlsx
+++ b/Run-Env/iManager/src/main/webapp/template/LogsStatsInterface.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\업무\작업\2021\2021.09.06\통계\후\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ESB_workspace\workspace\Git\iGate_v5\Custom\iManager\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="9825"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="24075" windowHeight="9825"/>
   </bookViews>
   <sheets>
     <sheet name="인터페이스별 통계" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>거래일자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -61,15 +57,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>평균 처리 시간</t>
+    <t>인터페이스별 통계</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최대 처리 시간</t>
+    <t>최대 처리 시간 (ms)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>인터페이스별 통계</t>
+    <t>평균 처리 시간 (ms)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1153,7 +1149,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1166,7 +1164,7 @@
     <row r="1" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1174,8 +1172,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -1189,11 +1186,11 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="6"/>
@@ -1204,52 +1201,45 @@
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
-      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
